--- a/data/trans_bre/P22_R2-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P22_R2-Habitat-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.946525053811349</v>
+        <v>-2.977933332231701</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.421500269468158</v>
+        <v>-2.352207445992426</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.076945591447338</v>
+        <v>-0.8823884972973268</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.217753702683214</v>
+        <v>-1.438549926417335</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.6605725958945137</v>
+        <v>-0.6562617041369572</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.5544714832271838</v>
+        <v>-0.5523318376113482</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.4557997437468752</v>
+        <v>-0.4059301361392096</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.2339251987622236</v>
+        <v>-0.269656682707596</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.5529852212919233</v>
+        <v>0.719227484753621</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.490143580028469</v>
+        <v>1.291622717324926</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.030015969138217</v>
+        <v>2.220900943817476</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.791226296272735</v>
+        <v>2.747490571256334</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.2457243439392863</v>
+        <v>0.3125045899037268</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6756823990771655</v>
+        <v>0.5663326042595067</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.985124980180902</v>
+        <v>2.454808570340156</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.9748985987400947</v>
+        <v>0.9306157668752115</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>0.9752930110572738</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-0.8636852870054917</v>
+        <v>-0.8636852870054932</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.3037043894934237</v>
@@ -749,7 +749,7 @@
         <v>0.2683338786836997</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.09378625535713218</v>
+        <v>-0.09378625535713232</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-3.935017374158611</v>
+        <v>-3.956437471371393</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-2.241851358473371</v>
+        <v>-2.333294063546162</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.8891827095820121</v>
+        <v>-0.9130882925231852</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-3.646766820866219</v>
+        <v>-3.55812009904165</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.5566687479169761</v>
+        <v>-0.5619906683631524</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.4542909628205879</v>
+        <v>-0.4734022069185913</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1964246500736235</v>
+        <v>-0.2113640757031114</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3308545640655758</v>
+        <v>-0.3251912884257807</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.279423003348977</v>
+        <v>0.3382142964602848</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.207399633508609</v>
+        <v>1.130142543204146</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2.91444045703719</v>
+        <v>2.793468307328405</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1.506256694848785</v>
+        <v>1.738835103488779</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.06739193088402587</v>
+        <v>0.07504644394678679</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3667165037975332</v>
+        <v>0.3768036831242067</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.07963853112639</v>
+        <v>0.9580439074830477</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.2055054788165372</v>
+        <v>0.2258254442404721</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-5.386266049766078</v>
+        <v>-5.102695205853315</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.92372671799101</v>
+        <v>-3.875227314740121</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.662238619282576</v>
+        <v>-1.759532961191237</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.440970871282528</v>
+        <v>-1.475170319787497</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.5147306445826922</v>
+        <v>-0.5125091099013137</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.5889689695447885</v>
+        <v>-0.5717629643076007</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.4656725575221865</v>
+        <v>-0.5060617276583206</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.1151872752446294</v>
+        <v>-0.1186058820963886</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4714637691010151</v>
+        <v>0.6955266524348487</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5632382479370116</v>
+        <v>0.620333210498518</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.587197865156136</v>
+        <v>1.61641200953419</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.988745265120676</v>
+        <v>4.824045895753808</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.07902983236388497</v>
+        <v>0.09895909349163405</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1510247566662849</v>
+        <v>0.172168951680261</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9281393694202392</v>
+        <v>0.9244737106482931</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.5673130370795334</v>
+        <v>0.5394213309127479</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-3.408599010264306</v>
+        <v>-3.166561862279762</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-1.88718988596014</v>
+        <v>-1.737220107321014</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-1.245104471497121</v>
+        <v>-1.229187245344893</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-2.268944533488272</v>
+        <v>-1.938683281987359</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3485742219270671</v>
+        <v>-0.340341737293289</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2723709382517701</v>
+        <v>-0.268962540257579</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1822760293003567</v>
+        <v>-0.195436582920185</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1431324973235066</v>
+        <v>-0.1288600283744439</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.325476047450751</v>
+        <v>1.506017857913171</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>2.483302785568165</v>
+        <v>2.709680872240563</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3.285543484480212</v>
+        <v>3.130770934147625</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.67316603138404</v>
+        <v>3.799459081572816</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1914477895681983</v>
+        <v>0.2095384478253828</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.5785702029798701</v>
+        <v>0.6406497606159195</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7041788672590878</v>
+        <v>0.6763400410009189</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2908592237423181</v>
+        <v>0.3244136459022986</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.621367811779265</v>
+        <v>-2.479902398768143</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.498581330902113</v>
+        <v>-1.482074571810174</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.3434941332693597</v>
+        <v>-0.2124772088586623</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.9438719395943996</v>
+        <v>-0.7820534601010337</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.3567967797539096</v>
+        <v>-0.3500654999998164</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.287620948196788</v>
+        <v>-0.2766839046436366</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.0916384077969136</v>
+        <v>-0.05237129151390824</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.08794193122103945</v>
+        <v>-0.07233126766968501</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-0.2112469673070985</v>
+        <v>-0.164367729282126</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.5740805972920524</v>
+        <v>0.5539297162299934</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.672500051524438</v>
+        <v>1.768719209458439</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.978912845675586</v>
+        <v>2.021029042442662</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>-0.03444307595119095</v>
+        <v>-0.02472541117129945</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1510045869447577</v>
+        <v>0.1450114765065341</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5291934253826357</v>
+        <v>0.5608916388663755</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.221622667934667</v>
+        <v>0.2249016599616746</v>
       </c>
     </row>
     <row r="19">
